--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H2">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.0021229868675</v>
+        <v>25.081504</v>
       </c>
       <c r="N2">
-        <v>25.0021229868675</v>
+        <v>50.163008</v>
       </c>
       <c r="O2">
-        <v>0.6798889288077312</v>
+        <v>0.670801886161467</v>
       </c>
       <c r="P2">
-        <v>0.6798889288077312</v>
+        <v>0.5799583902495139</v>
       </c>
       <c r="Q2">
-        <v>108.3549473479999</v>
+        <v>115.853674148352</v>
       </c>
       <c r="R2">
-        <v>108.3549473479999</v>
+        <v>695.1220448901121</v>
       </c>
       <c r="S2">
-        <v>0.6798889288077312</v>
+        <v>0.670801886161467</v>
       </c>
       <c r="T2">
-        <v>0.6798889288077312</v>
+        <v>0.5799583902495139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H3">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>11.231704726118</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N3">
-        <v>11.231704726118</v>
+        <v>0.942103</v>
       </c>
       <c r="O3">
-        <v>0.3054265311364204</v>
+        <v>0.008398811455623189</v>
       </c>
       <c r="P3">
-        <v>0.3054265311364204</v>
+        <v>0.01089210079525609</v>
       </c>
       <c r="Q3">
-        <v>48.67629740346606</v>
+        <v>1.450552220688</v>
       </c>
       <c r="R3">
-        <v>48.67629740346606</v>
+        <v>13.054969986192</v>
       </c>
       <c r="S3">
-        <v>0.3054265311364204</v>
+        <v>0.008398811455623189</v>
       </c>
       <c r="T3">
-        <v>0.3054265311364204</v>
+        <v>0.01089210079525609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +652,117 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H4">
+        <v>13.857264</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>11.39945533333333</v>
+      </c>
+      <c r="N4">
+        <v>34.198366</v>
+      </c>
+      <c r="O4">
+        <v>0.3048770974345635</v>
+      </c>
+      <c r="P4">
+        <v>0.3953835721837834</v>
+      </c>
+      <c r="Q4">
+        <v>52.65508733673601</v>
+      </c>
+      <c r="R4">
+        <v>473.895786030624</v>
+      </c>
+      <c r="S4">
+        <v>0.3048770974345635</v>
+      </c>
+      <c r="T4">
+        <v>0.3953835721837834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4.33382986736422</v>
-      </c>
-      <c r="H4">
-        <v>4.33382986736422</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.540006846597337</v>
-      </c>
-      <c r="N4">
-        <v>0.540006846597337</v>
-      </c>
-      <c r="O4">
-        <v>0.01468454005584842</v>
-      </c>
-      <c r="P4">
-        <v>0.01468454005584842</v>
-      </c>
-      <c r="Q4">
-        <v>2.340297800364708</v>
-      </c>
-      <c r="R4">
-        <v>2.340297800364708</v>
-      </c>
-      <c r="S4">
-        <v>0.01468454005584842</v>
-      </c>
-      <c r="T4">
-        <v>0.01468454005584842</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H5">
+        <v>13.857264</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5953364999999999</v>
+      </c>
+      <c r="N5">
+        <v>1.190673</v>
+      </c>
+      <c r="O5">
+        <v>0.01592220494834624</v>
+      </c>
+      <c r="P5">
+        <v>0.01376593677144639</v>
+      </c>
+      <c r="Q5">
+        <v>2.749911683112</v>
+      </c>
+      <c r="R5">
+        <v>16.499470098672</v>
+      </c>
+      <c r="S5">
+        <v>0.01592220494834624</v>
+      </c>
+      <c r="T5">
+        <v>0.01376593677144639</v>
       </c>
     </row>
   </sheetData>
